--- a/prototipos/DataInput/RelatórioFinal.xlsx
+++ b/prototipos/DataInput/RelatórioFinal.xlsx
@@ -25833,7 +25833,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>Desconhecida</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -25893,7 +25893,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>Desconhecida</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
